--- a/Stocks/BALRAMCHIN.xlsx
+++ b/Stocks/BALRAMCHIN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>163.5</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>165.13694898367669</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>157.68851777621435</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>76.474867956352327</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>8.3000000000000114</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>10.450000000000017</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.79425837320574144</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>157.20523440951726</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>2.8955561892715309</v>
       </c>
       <c r="Y67">
         <v>1.7027911038696826</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>166.1</v>
+      </c>
+      <c r="D83">
+        <v>174.5</v>
+      </c>
+      <c r="E83">
+        <v>164.55</v>
+      </c>
+      <c r="F83">
+        <v>173.05</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>170.70000000000002</v>
+      </c>
+      <c r="H83">
+        <v>168.50614324364699</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>169.92338328415298</v>
+      </c>
+      <c r="K83">
+        <v>164.21382681769848</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>74.030524350695941</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>8.5</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>9.9499999999999886</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.85427135678392052</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>167.08167989307199</v>
+      </c>
+      <c r="W83">
+        <v>164.66558047679482</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>2.4160994162771772</v>
+      </c>
+      <c r="Y83">
+        <v>2.617178538265609</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>171</v>
+      </c>
+      <c r="D84">
+        <v>172.6</v>
+      </c>
+      <c r="E84">
+        <v>168</v>
+      </c>
+      <c r="F84">
+        <v>168.2</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>169.6</v>
+      </c>
+      <c r="H84">
+        <v>169.05307162182351</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>170.51818699878564</v>
+      </c>
+      <c r="K84">
+        <v>165.05519863598769</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>52.112592695044228</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>4.5999999999999943</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>4.3478260869562801E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>167.25372914029168</v>
+      </c>
+      <c r="W84">
+        <v>164.92738933036557</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>2.326339809926111</v>
+      </c>
+      <c r="Y84">
+        <v>2.5590107925977095</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>169.3</v>
+      </c>
+      <c r="D85">
+        <v>172.35</v>
+      </c>
+      <c r="E85">
+        <v>167.7</v>
+      </c>
+      <c r="F85">
+        <v>170.2</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>170.08333333333331</v>
+      </c>
+      <c r="H85">
+        <v>169.56820247757841</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>170.92525655461105</v>
+      </c>
+      <c r="K85">
+        <v>165.64293227243488</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>58.453120651918574</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>4.6500000000000057</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.53763440860214984</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>167.70700158024681</v>
+      </c>
+      <c r="W85">
+        <v>165.31795308367182</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>2.3890484965749863</v>
+      </c>
+      <c r="Y85">
+        <v>2.5250183333931648</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>170.4</v>
+      </c>
+      <c r="D86">
+        <v>173</v>
+      </c>
+      <c r="E86">
+        <v>168.1</v>
+      </c>
+      <c r="F86">
+        <v>172.6</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>171.23333333333335</v>
+      </c>
+      <c r="H86">
+        <v>170.40076790545589</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>171.38631065358638</v>
+      </c>
+      <c r="K86">
+        <v>166.1889473230049</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>65.33737364715688</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>4.9000000000000057</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.91836734693877442</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>168.45977056790116</v>
+      </c>
+      <c r="W86">
+        <v>165.85736396636281</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>2.6024066015383482</v>
+      </c>
+      <c r="Y86">
+        <v>2.5404959870222017</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>172.05</v>
+      </c>
+      <c r="D87">
+        <v>174.25</v>
+      </c>
+      <c r="E87">
+        <v>172.05</v>
+      </c>
+      <c r="F87">
+        <v>173.45</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>173.25</v>
+      </c>
+      <c r="H87">
+        <v>171.82538395272795</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>172.02268606390052</v>
+      </c>
+      <c r="K87">
+        <v>167.49140347344826</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>67.706311981396681</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.63636363636362936</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>169.22749817283943</v>
+      </c>
+      <c r="W87">
+        <v>166.41978145033593</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>2.8077167225034998</v>
+      </c>
+      <c r="Y87">
+        <v>2.5939401341184611</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>172.5</v>
+      </c>
+      <c r="D88">
+        <v>176.3</v>
+      </c>
+      <c r="E88">
+        <v>169.7</v>
+      </c>
+      <c r="F88">
+        <v>174.3</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>173.43333333333331</v>
+      </c>
+      <c r="H88">
+        <v>172.62935864303063</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>172.97320027192262</v>
+      </c>
+      <c r="K88">
+        <v>167.98220270157086</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>70.247979655325111</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>4.6000000000000227</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>6.6000000000000227</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.69696969696969802</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>170.00788306932569</v>
+      </c>
+      <c r="W88">
+        <v>167.00350134290363</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>3.0043817264220536</v>
+      </c>
+      <c r="Y88">
+        <v>2.6760284525791795</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>170.5</v>
+      </c>
+      <c r="D89">
+        <v>174.5</v>
+      </c>
+      <c r="E89">
+        <v>169.75</v>
+      </c>
+      <c r="F89">
+        <v>173</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>172.41666666666666</v>
+      </c>
+      <c r="H89">
+        <v>172.52301265484863</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>173.31248910038425</v>
+      </c>
+      <c r="K89">
+        <v>168.37504654566621</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>61.060508725028292</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>3.25</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>4.75</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>170.46820875096788</v>
+      </c>
+      <c r="W89">
+        <v>167.44768642861447</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>3.0205223223534006</v>
+      </c>
+      <c r="Y89">
+        <v>2.7449272265340237</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>171.5</v>
+      </c>
+      <c r="D90">
+        <v>175</v>
+      </c>
+      <c r="E90">
+        <v>170.8</v>
+      </c>
+      <c r="F90">
+        <v>174.85</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>173.54999999999998</v>
+      </c>
+      <c r="H90">
+        <v>173.03650632742432</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>173.6874915225211</v>
+      </c>
+      <c r="K90">
+        <v>168.91392509107371</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>68.409902195790423</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>4.0499999999999829</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>4.1999999999999886</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.96428571428571286</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>171.1423304815882</v>
+      </c>
+      <c r="W90">
+        <v>167.9960059524208</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>3.1463245291674014</v>
+      </c>
+      <c r="Y90">
+        <v>2.8252066870606991</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>175</v>
+      </c>
+      <c r="D91">
+        <v>176.25</v>
+      </c>
+      <c r="E91">
+        <v>170.65</v>
+      </c>
+      <c r="F91">
+        <v>171.45</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>172.7833333333333</v>
+      </c>
+      <c r="H91">
+        <v>172.90991983037881</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>174.25693785084974</v>
+      </c>
+      <c r="K91">
+        <v>169.29971951527955</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>47.719321239268268</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.79999999999998295</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.14285714285713996</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>171.18966425365156</v>
+      </c>
+      <c r="W91">
+        <v>168.2518573633526</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>2.9378068902989583</v>
+      </c>
+      <c r="Y91">
+        <v>2.8477267277083511</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>170.3</v>
+      </c>
+      <c r="D92">
+        <v>173.3</v>
+      </c>
+      <c r="E92">
+        <v>169.65</v>
+      </c>
+      <c r="F92">
+        <v>172</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>171.65</v>
+      </c>
+      <c r="H92">
+        <v>172.27995991518941</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>174.04428499510536</v>
+      </c>
+      <c r="K92">
+        <v>169.37755962299519</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>50.732389693974191</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>3.6500000000000057</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.64383561643835363</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>171.31433129155133</v>
+      </c>
+      <c r="W92">
+        <v>168.52949755865981</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>2.7848337328915136</v>
+      </c>
+      <c r="Y92">
+        <v>2.8351481287449838</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>172</v>
+      </c>
+      <c r="D93">
+        <v>173.75</v>
+      </c>
+      <c r="E93">
+        <v>171.45</v>
+      </c>
+      <c r="F93">
+        <v>171.6</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>172.26666666666665</v>
+      </c>
+      <c r="H93">
+        <v>172.27331329092803</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>173.9788883295264</v>
+      </c>
+      <c r="K93">
+        <v>169.83810192899625</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>48.206686147449176</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>6.5217391304349975E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>171.35828032362036</v>
+      </c>
+      <c r="W93">
+        <v>168.75694218394426</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>2.6013381396761019</v>
+      </c>
+      <c r="Y93">
+        <v>2.7883861309312072</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>171.25</v>
+      </c>
+      <c r="D94">
+        <v>176.5</v>
+      </c>
+      <c r="E94">
+        <v>171.05</v>
+      </c>
+      <c r="F94">
+        <v>175</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>174.18333333333331</v>
+      </c>
+      <c r="H94">
+        <v>173.22832331213067</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>174.53913536740941</v>
+      </c>
+      <c r="K94">
+        <v>170.10741261144153</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>66.125220131176619</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>3.9499999999999886</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>5.4499999999999886</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.72477064220183429</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>171.91854488921723</v>
+      </c>
+      <c r="W94">
+        <v>169.21939091105949</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>2.6991539781577387</v>
+      </c>
+      <c r="Y94">
+        <v>2.7705397003765135</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>175</v>
+      </c>
+      <c r="D95">
+        <v>182.5</v>
+      </c>
+      <c r="E95">
+        <v>175</v>
+      </c>
+      <c r="F95">
+        <v>175.65</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>177.71666666666667</v>
+      </c>
+      <c r="H95">
+        <v>175.47249498939868</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>176.308216396874</v>
+      </c>
+      <c r="K95">
+        <v>171.1946542533434</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>68.711953561310395</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>7.5</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>8.6666666666667419E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>172.49261490626074</v>
+      </c>
+      <c r="W95">
+        <v>169.69573232505508</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>2.796882581205665</v>
+      </c>
+      <c r="Y95">
+        <v>2.7758082765423437</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>175.3</v>
+      </c>
+      <c r="D96">
+        <v>178.4</v>
+      </c>
+      <c r="E96">
+        <v>173.8</v>
+      </c>
+      <c r="F96">
+        <v>174.85</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>175.68333333333337</v>
+      </c>
+      <c r="H96">
+        <v>175.57791416136604</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>176.77305719756868</v>
+      </c>
+      <c r="K96">
+        <v>171.77361997482265</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>61.488338490937785</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>1.0499999999999829</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>4.5999999999999943</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.22826086956521396</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>172.85528953606678</v>
+      </c>
+      <c r="W96">
+        <v>170.07752993060654</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>2.7777596054602327</v>
+      </c>
+      <c r="Y96">
+        <v>2.7761985423259214</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>173.9</v>
+      </c>
+      <c r="D97">
+        <v>178</v>
+      </c>
+      <c r="E97">
+        <v>172.2</v>
+      </c>
+      <c r="F97">
+        <v>173.7</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>174.63333333333333</v>
+      </c>
+      <c r="H97">
+        <v>175.10562374734968</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>177.04571115366451</v>
+      </c>
+      <c r="K97">
+        <v>171.86837109152873</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>51.718524565293279</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>5.8000000000000114</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.25862068965517193</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>172.98524499205649</v>
+      </c>
+      <c r="W97">
+        <v>170.34586104685792</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>2.6393839451985741</v>
+      </c>
+      <c r="Y97">
+        <v>2.7488356229004518</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>175</v>
+      </c>
+      <c r="D98">
+        <v>176.25</v>
+      </c>
+      <c r="E98">
+        <v>168.45</v>
+      </c>
+      <c r="F98">
+        <v>170.1</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>171.6</v>
+      </c>
+      <c r="H98">
+        <v>173.35281187367485</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>176.86888645285018</v>
+      </c>
+      <c r="K98">
+        <v>171.10873307118902</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>31.890779043368049</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1.6500000000000057</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>7.8000000000000114</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.21153846153846195</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>172.54136114712472</v>
+      </c>
+      <c r="W98">
+        <v>170.32764911746105</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>2.2137120296636681</v>
+      </c>
+      <c r="Y98">
+        <v>2.6418109042530951</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>170.25</v>
+      </c>
+      <c r="D99">
+        <v>173</v>
+      </c>
+      <c r="E99">
+        <v>170</v>
+      </c>
+      <c r="F99">
+        <v>172.95</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>171.98333333333335</v>
+      </c>
+      <c r="H99">
+        <v>172.6680726035041</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>176.00913390777237</v>
+      </c>
+      <c r="K99">
+        <v>170.86234794425812</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>50.623469358963582</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>2.9499999999999886</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.98333333333332951</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>172.60422866295167</v>
+      </c>
+      <c r="W99">
+        <v>170.52189733098245</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>2.0823313319692147</v>
+      </c>
+      <c r="Y99">
+        <v>2.5299149897963189</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>171.1</v>
+      </c>
+      <c r="D100">
+        <v>174.85</v>
+      </c>
+      <c r="E100">
+        <v>171.1</v>
+      </c>
+      <c r="F100">
+        <v>172</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>172.65</v>
+      </c>
+      <c r="H100">
+        <v>172.65903630175205</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>175.75154859493406</v>
+      </c>
+      <c r="K100">
+        <v>170.91515951220074</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>45.418525711171569</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>3.75</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.24000000000000152</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>172.51127040711296</v>
+      </c>
+      <c r="W100">
+        <v>170.63138641757635</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>1.8798839895366086</v>
+      </c>
+      <c r="Y100">
+        <v>2.3999087897443769</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>171.75</v>
+      </c>
+      <c r="D101">
+        <v>173.55</v>
+      </c>
+      <c r="E101">
+        <v>169</v>
+      </c>
+      <c r="F101">
+        <v>170.35</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>170.96666666666667</v>
+      </c>
+      <c r="H101">
+        <v>171.81285148420938</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>175.26231557383761</v>
+      </c>
+      <c r="K101">
+        <v>170.48956850948946</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>37.130278668419315</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>1.3499999999999943</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>4.5500000000000114</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.29670329670329471</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>172.17876726755711</v>
+      </c>
+      <c r="W101">
+        <v>170.61054297923735</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>1.5682242883197546</v>
+      </c>
+      <c r="Y101">
+        <v>2.2335718894594523</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>169.45</v>
+      </c>
+      <c r="D102">
+        <v>170.5</v>
+      </c>
+      <c r="E102">
+        <v>166</v>
+      </c>
+      <c r="F102">
+        <v>166.15</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>167.54999999999998</v>
+      </c>
+      <c r="H102">
+        <v>169.68142574210469</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>174.20402322409592</v>
+      </c>
+      <c r="K102">
+        <v>169.4918866184918</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>23.490699658856265</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>4.5</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>3.3333333333334596E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>171.25126461100987</v>
+      </c>
+      <c r="W102">
+        <v>170.28013238818272</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>0.97113222282715128</v>
+      </c>
+      <c r="Y102">
+        <v>1.981083956132992</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>166.8</v>
+      </c>
+      <c r="D103">
+        <v>168</v>
+      </c>
+      <c r="E103">
+        <v>161.1</v>
+      </c>
+      <c r="F103">
+        <v>166.75</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>165.28333333333333</v>
+      </c>
+      <c r="H103">
+        <v>167.482379537719</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>172.82535139651904</v>
+      </c>
+      <c r="K103">
+        <v>167.62702292549363</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>28.200537179894031</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>5.6500000000000057</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>6.9000000000000057</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.81884057971014512</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>170.5587623631622</v>
+      </c>
+      <c r="W103">
+        <v>170.01864110016919</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>0.54012126299301144</v>
+      </c>
+      <c r="Y103">
+        <v>1.6928914175049958</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>167.5</v>
+      </c>
+      <c r="D104">
+        <v>170.1</v>
+      </c>
+      <c r="E104">
+        <v>164.8</v>
+      </c>
+      <c r="F104">
+        <v>165.8</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>166.9</v>
+      </c>
+      <c r="H104">
+        <v>167.19118976885949</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>172.21971775284814</v>
+      </c>
+      <c r="K104">
+        <v>166.99879560871727</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>25.137852813454671</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>5.2999999999999829</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.18867924528301946</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>169.82664507652186</v>
+      </c>
+      <c r="W104">
+        <v>169.70614916682334</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>0.1204959096985192</v>
+      </c>
+      <c r="Y104">
+        <v>1.3784123159437005</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>169.8</v>
+      </c>
+      <c r="D105">
+        <v>169.8</v>
+      </c>
+      <c r="E105">
+        <v>160.85</v>
+      </c>
+      <c r="F105">
+        <v>162.35</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>164.33333333333334</v>
+      </c>
+      <c r="H105">
+        <v>165.7622615510964</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>171.68200269665968</v>
+      </c>
+      <c r="K105">
+        <v>165.63239658455788</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>16.837097780275268</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>8.9500000000000171</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.16759776536312818</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>168.67639198782618</v>
+      </c>
+      <c r="W105">
+        <v>169.16124922854013</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-0.48485724071394998</v>
+      </c>
+      <c r="Y105">
+        <v>1.0057584046121704</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>163.6</v>
+      </c>
+      <c r="D106">
+        <v>164.05</v>
+      </c>
+      <c r="E106">
+        <v>155.85</v>
+      </c>
+      <c r="F106">
+        <v>157.4</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>159.1</v>
+      </c>
+      <c r="H106">
+        <v>162.43113077554818</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>169.98600209740198</v>
+      </c>
+      <c r="K106">
+        <v>163.45853067687835</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>10.574582803244683</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>1.5500000000000114</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>8.2000000000000171</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.18902439024390344</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>166.94156245123753</v>
+      </c>
+      <c r="W106">
+        <v>168.29004558198159</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-1.3484831307440572</v>
+      </c>
+      <c r="Y106">
+        <v>0.53491009754092478</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>163.10000000000002</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>160.9</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>159.95000000000002</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>158.94999999999999</v>
+      </c>
+      <c r="D107">
+        <v>161.65</v>
+      </c>
+      <c r="E107">
+        <v>158</v>
+      </c>
+      <c r="F107">
+        <v>161.05000000000001</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>160.23333333333332</v>
+      </c>
+      <c r="H107">
+        <v>161.33223205444074</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>168.13355718686822</v>
+      </c>
+      <c r="K107">
+        <v>162.24552385979428</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>33.405273940195251</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>3.0500000000000114</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>3.6500000000000057</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.83561643835616617</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>166.03516822797022</v>
+      </c>
+      <c r="W107">
+        <v>167.75374590924221</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-1.7185776812719951</v>
+      </c>
+      <c r="Y107">
+        <v>8.421254177834081E-2</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
